--- a/crosswalks/Coastal-IUCNGET/Coastal-IUCNGET.xlsx
+++ b/crosswalks/Coastal-IUCNGET/Coastal-IUCNGET.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\Coastal-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{083D31AB-958D-4FD9-B3F0-19DF32C9D755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C66DFC9-CFAB-4056-9063-5B2418BD981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="9195" windowWidth="23925" windowHeight="10815" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
+    <workbookView xWindow="945" yWindow="9315" windowWidth="34230" windowHeight="10815" activeTab="1" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
   <sheets>
     <sheet name="header" sheetId="5" r:id="rId1"/>
@@ -272,10 +272,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,7 +573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{692E3A1F-E8D6-4D8F-836E-084FC2E29426}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
@@ -735,7 +731,7 @@
         <v>15</v>
       </c>
       <c r="N2" s="2" t="str">
-        <f>_xlfn.CONCAT(B2, " - mapping to IUCN GET - ", ROW()-1)</f>
+        <f>_xlfn.CONCAT(B2, " - mapping to IUCN GET - ", ROW(B2)-1)</f>
         <v>Tidal Flat - mapping to IUCN GET - 1</v>
       </c>
     </row>
@@ -774,7 +770,7 @@
         <v>15</v>
       </c>
       <c r="N3" s="2" t="str">
-        <f t="shared" ref="N3:N5" si="0">_xlfn.CONCAT(B3, " - mapping to IUCN GET - ", ROW()-1)</f>
+        <f t="shared" ref="N3:N5" si="0">_xlfn.CONCAT(B3, " - mapping to IUCN GET - ", ROW(B3)-1)</f>
         <v>Mangroves - mapping to IUCN GET - 2</v>
       </c>
     </row>
@@ -869,6 +865,65 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100772FA3DF59B7CE49A6C16870444FDBEA" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1badbe4fae1da33fa4f3d33d98841982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9e444dda-df07-4069-8b25-4dfb1c3da75a" xmlns:ns3="72d9be16-af35-44ba-8991-a3db737bf75a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35b20e6642ad5eb13a26fdf3049cd990" ns2:_="" ns3:_="">
     <xsd:import namespace="9e444dda-df07-4069-8b25-4dfb1c3da75a"/>
@@ -1144,65 +1199,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1221,6 +1217,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66326C79-A0D3-4EA9-86BB-19E204621547}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1239,22 +1251,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39241E02-8637-4EBB-8C9C-3CF779AD8349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC5D47B6-1317-4F93-BD6E-FCBD1047334E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D487604F-0564-4158-A24A-3D7190C5619F}">
   <ds:schemaRefs>

--- a/crosswalks/Coastal-IUCNGET/Coastal-IUCNGET.xlsx
+++ b/crosswalks/Coastal-IUCNGET/Coastal-IUCNGET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\ecosystem-typology\crosswalks\Coastal-IUCNGET\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C66DFC9-CFAB-4056-9063-5B2418BD981C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34441608-E21C-461C-A627-28E2A884AFEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="945" yWindow="9315" windowWidth="34230" windowHeight="10815" activeTab="1" xr2:uid="{D01AE75A-5DB4-4EB9-9B33-8751D4445479}"/>
   </bookViews>
@@ -574,7 +574,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ACFEC63-F603-4D93-B073-540A32B07BA6}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
